--- a/Labb_2/Execution time of sorting algorithms.xlsx
+++ b/Labb_2/Execution time of sorting algorithms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\OneDrive\KTH\Årskurs 2\HT-20\Algoritmer Och Datastrukturer\ID1020\ID1020\Labb_2\Assignment_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeel\OneDrive\KTH\Årskurs 2\HT-20\Algoritmer Och Datastrukturer\ID1020\ID1020\Labb_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40909554-598A-4B5E-A971-C197B3345753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8CC53-4DAC-475D-AD99-BFBAC138D204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FCC568E-7D12-4D19-84B9-86185B045E6F}"/>
   </bookViews>
@@ -34,25 +34,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Insertionsort</t>
-  </si>
-  <si>
-    <t>Mergesort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Arraysize (Int)</t>
   </si>
   <si>
-    <t>Time (ms)</t>
+    <t>Insertionsort [Random] (ms)</t>
+  </si>
+  <si>
+    <t>Mergesort [Random] (ms)</t>
+  </si>
+  <si>
+    <t>Insertionsort [Worstcase] (ms)</t>
+  </si>
+  <si>
+    <t>Mergesort [Worstcase] (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +63,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,15 +106,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Kontrollcell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Utdata" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,6 +179,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Execution Time For Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -121,10 +241,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14469965705462848"/>
-          <c:y val="3.8332660080357732E-2"/>
-          <c:w val="0.80516823157990303"/>
-          <c:h val="0.78151490471416263"/>
+          <c:x val="6.7326912120324073E-2"/>
+          <c:y val="0.17880625613990722"/>
+          <c:w val="0.90688297699108356"/>
+          <c:h val="0.6223434262870704"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -139,15 +259,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertionsort</c:v>
+                  <c:v>Insertionsort [Random] (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -156,69 +276,51 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$7</c:f>
+              <c:f>Blad1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -232,9 +334,21 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4102</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>14344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100321</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>413383</c:v>
                 </c:pt>
               </c:numCache>
@@ -256,13 +370,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mergesort</c:v>
+                  <c:v>Mergesort [Random] (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -273,69 +387,51 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$7</c:f>
+              <c:f>Blad1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -349,9 +445,21 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
@@ -364,30 +472,237 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertionsort [Worstcase] (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98676</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>273381</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1106164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4449-45CB-B30B-55BF4391AC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mergesort [Worstcase] (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4449-45CB-B30B-55BF4391AC3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="443056336"/>
         <c:axId val="443056976"/>
@@ -399,7 +714,37 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -421,7 +766,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -450,6 +795,21 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -466,7 +826,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
@@ -486,25 +846,54 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -590,7 +979,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -601,7 +990,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -624,9 +1013,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -655,8 +1044,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -690,47 +1079,33 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -743,7 +1118,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -764,9 +1139,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -774,7 +1149,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -794,213 +1169,6 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1021,9 +1189,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1031,14 +1199,234 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1046,13 +1434,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="dk1">
         <a:lumMod val="50000"/>
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1064,7 +1452,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1094,13 +1482,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1114,7 +1503,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1123,6 +1512,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1131,16 +1533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1468</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12698</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209085</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157976</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1465,96 +1867,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7911BF5-E990-47D8-A51E-4FEE74772F98}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.36328125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
+      <c r="D5" s="2">
+        <v>108</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2829</v>
+      </c>
+      <c r="E6" s="2">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4102</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10804</v>
+      </c>
+      <c r="E7" s="2">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>150000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>14344</v>
+      </c>
+      <c r="C8" s="2">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2">
+        <v>24914</v>
+      </c>
+      <c r="E8" s="2">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10000</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>300000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35777</v>
+      </c>
+      <c r="C9" s="2">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2">
+        <v>98676</v>
+      </c>
+      <c r="E9" s="2">
+        <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>100000</v>
-      </c>
-      <c r="B6">
-        <v>4102</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>500000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100321</v>
+      </c>
+      <c r="C10" s="2">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2">
+        <v>273381</v>
+      </c>
+      <c r="E10" s="2">
+        <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>1000000</v>
       </c>
-      <c r="B7">
+      <c r="B11" s="2">
         <v>413383</v>
       </c>
-      <c r="C7">
+      <c r="C11" s="2">
         <v>127</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1106164</v>
+      </c>
+      <c r="E11" s="2">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
